--- a/all_model_summary_with_notes.xlsx
+++ b/all_model_summary_with_notes.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangxiaoling/Desktop/ECON-526-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B095290-84B2-474A-977E-5CFCE2AEB153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA11D7C-FE6D-1446-8FAC-27C042C46DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SELECTED - significant_dropna" sheetId="5" r:id="rId1"/>
-    <sheet name="significant_dropna" sheetId="3" r:id="rId2"/>
-    <sheet name="all models_dropna" sheetId="4" r:id="rId3"/>
-    <sheet name="significant" sheetId="2" r:id="rId4"/>
-    <sheet name="all models" sheetId="1" r:id="rId5"/>
+    <sheet name="Latest - dis_bor" sheetId="6" r:id="rId1"/>
+    <sheet name="SELECTED - significant_dropna" sheetId="5" r:id="rId2"/>
+    <sheet name="significant_dropna" sheetId="3" r:id="rId3"/>
+    <sheet name="all models_dropna" sheetId="4" r:id="rId4"/>
+    <sheet name="significant" sheetId="2" r:id="rId5"/>
+    <sheet name="all models" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3602" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="1795">
   <si>
     <t>Model</t>
   </si>
@@ -5894,12 +5895,78 @@
   <si>
     <t>22"open"</t>
   </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>One-Child Policy RDD</t>
+  </si>
+  <si>
+    <t>Two-Child Policy RDD Placebo Test</t>
+  </si>
+  <si>
+    <t>9.2559</t>
+  </si>
+  <si>
+    <t>3.758</t>
+  </si>
+  <si>
+    <t>16.668</t>
+  </si>
+  <si>
+    <t>-4.0568</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>-5.784</t>
+  </si>
+  <si>
+    <t>-2.330</t>
+  </si>
+  <si>
+    <t>-2.445e+04</t>
+  </si>
+  <si>
+    <t>8369.045</t>
+  </si>
+  <si>
+    <t>-4.1e+04</t>
+  </si>
+  <si>
+    <t>-7888.554</t>
+  </si>
+  <si>
+    <t>-8502.3399</t>
+  </si>
+  <si>
+    <t>2792.597</t>
+  </si>
+  <si>
+    <t>-1.4e+04</t>
+  </si>
+  <si>
+    <t>-2975.873</t>
+  </si>
+  <si>
+    <t>15"dvrcejdge_no_prov"</t>
+  </si>
+  <si>
+    <t>less significant, a good sign</t>
+  </si>
+  <si>
+    <t>not sure what's wrong w/ it</t>
+  </si>
+  <si>
+    <t>not a good sign</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5945,6 +6012,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6000,7 +6076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6026,8 +6102,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6329,11 +6421,373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA8AE40-8989-9E4A-8078-BC7C6A80A464}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="14" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="14"/>
+    <col min="5" max="6" width="8.5" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E13" t="s">
+        <v>546</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D16" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B17" t="s">
+        <v>501</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA25F2E-A058-3143-96F6-52C48D86EEFB}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="191" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="191" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6681,7 +7135,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>771</v>
       </c>
       <c r="B16" t="s">
@@ -6837,7 +7291,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="3" t="s">
         <v>814</v>
       </c>
       <c r="B23" t="s">
@@ -6997,12 +7451,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DBF29C-15AB-F445-A773-952A9663BEE2}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="191" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A31" zoomScale="191" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7506,7 +7960,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>771</v>
       </c>
       <c r="B23" t="s">
@@ -7974,7 +8428,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="3" t="s">
         <v>814</v>
       </c>
       <c r="B44" t="s">
@@ -8134,7 +8588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C696BB5-0C1A-3C40-8BE1-F5D5CF708EF1}">
   <dimension ref="A1:H265"/>
   <sheetViews>
@@ -13752,12 +14206,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5225CC-8913-F843-AEF7-A6E1A9CA52D6}">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14433,7 +14887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J199"/>
   <sheetViews>

--- a/all_model_summary_with_notes.xlsx
+++ b/all_model_summary_with_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangxiaoling/Desktop/ECON-526-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA11D7C-FE6D-1446-8FAC-27C042C46DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E276EB0-887C-DE4A-8CFD-ED4EA0B5782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="1795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="1789">
   <si>
     <t>Model</t>
   </si>
@@ -5905,68 +5905,50 @@
     <t>Two-Child Policy RDD Placebo Test</t>
   </si>
   <si>
-    <t>9.2559</t>
-  </si>
-  <si>
-    <t>3.758</t>
-  </si>
-  <si>
-    <t>16.668</t>
-  </si>
-  <si>
-    <t>-4.0568</t>
-  </si>
-  <si>
-    <t>0.876</t>
-  </si>
-  <si>
-    <t>-5.784</t>
-  </si>
-  <si>
-    <t>-2.330</t>
-  </si>
-  <si>
-    <t>-2.445e+04</t>
-  </si>
-  <si>
-    <t>8369.045</t>
-  </si>
-  <si>
-    <t>-4.1e+04</t>
-  </si>
-  <si>
-    <t>-7888.554</t>
-  </si>
-  <si>
-    <t>-8502.3399</t>
-  </si>
-  <si>
-    <t>2792.597</t>
-  </si>
-  <si>
-    <t>-1.4e+04</t>
-  </si>
-  <si>
-    <t>-2975.873</t>
-  </si>
-  <si>
     <t>15"dvrcejdge_no_prov"</t>
   </si>
   <si>
-    <t>less significant, a good sign</t>
-  </si>
-  <si>
-    <t>not sure what's wrong w/ it</t>
-  </si>
-  <si>
-    <t>not a good sign</t>
+    <t>it is less significant as it should, because our RDD is designed to capture the OCP, not TCP.</t>
+  </si>
+  <si>
+    <t>there are something fundamentally different between 2 groups of cities, and such difference may not be the OCP strictness.</t>
+  </si>
+  <si>
+    <t>similar to the comment above, this is not a good sign</t>
+  </si>
+  <si>
+    <t>18.2596</t>
+  </si>
+  <si>
+    <t>50.232</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>-81.147</t>
+  </si>
+  <si>
+    <t>117.667</t>
+  </si>
+  <si>
+    <t>The variable that Josh explained before</t>
+  </si>
+  <si>
+    <t>The variable that Will explained before</t>
+  </si>
+  <si>
+    <t>This is a wonderful sign, because the jump disappear. This means that the effect of housing price growth rate(I can't remember the exact meaning of this variable) is influenced by OCP, not TCP.</t>
+  </si>
+  <si>
+    <t>Short Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6022,6 +6004,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6076,7 +6078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6111,14 +6113,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6422,10 +6436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA8AE40-8989-9E4A-8078-BC7C6A80A464}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6436,17 +6450,17 @@
     <col min="7" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>1774</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1773</v>
       </c>
@@ -6466,7 +6480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>769</v>
       </c>
@@ -6485,8 +6499,13 @@
       <c r="F3" s="17" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>790</v>
       </c>
@@ -6506,7 +6525,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>796</v>
       </c>
@@ -6525,8 +6544,13 @@
       <c r="F5" s="17" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>771</v>
       </c>
@@ -6545,8 +6569,13 @@
       <c r="F6" s="17" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="13" t="s">
+        <v>1786</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>1772</v>
       </c>
@@ -6566,7 +6595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>808</v>
       </c>
@@ -6586,7 +6615,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>814</v>
       </c>
@@ -6605,161 +6634,234 @@
       <c r="F9" s="17" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="G9" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>1775</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="28" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="B13" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="23">
+        <v>9.1492000000000004</v>
+      </c>
+      <c r="C13" s="23">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="D13" s="23">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F13" s="23">
+        <v>18.061</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>1777</v>
       </c>
-      <c r="D13" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E13" t="s">
-        <v>546</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1778</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="B14" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23">
+        <v>-4.0697999999999999</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1.079</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23">
+        <v>-6.2060000000000004</v>
+      </c>
+      <c r="F14" s="23">
+        <v>-1.9339999999999999</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="B15" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D15" t="s">
-        <v>504</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1786</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D16" t="s">
-        <v>338</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24">
+        <v>-24450</v>
+      </c>
+      <c r="C15" s="23">
+        <v>8369.0450000000001</v>
+      </c>
+      <c r="D15" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="24">
+        <v>-41000</v>
+      </c>
+      <c r="F15" s="23">
+        <v>-7888.5540000000001</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B16" s="23">
+        <v>-8502.3399000000009</v>
+      </c>
+      <c r="C16" s="23">
+        <v>2792.5970000000002</v>
+      </c>
+      <c r="D16" s="23">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="24">
+        <v>-14000</v>
+      </c>
+      <c r="F16" s="23">
+        <v>-2975.873</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>1772</v>
       </c>
-      <c r="B17" t="s">
-        <v>501</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>332</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B17" s="23">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="F17" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -6774,9 +6876,14 @@
     <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
